--- a/lab3a/Diagram comparison/results.xlsx
+++ b/lab3a/Diagram comparison/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\4 semester\lab3a\Diagram comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3ECC8A-21F8-4606-A2A7-86FE57D51E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D424FF-F053-4A2A-A6A8-FB48B9D6F6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4842C94D-4515-4B5E-82DD-4356298228B5}"/>
   </bookViews>
@@ -2075,10 +2075,10 @@
       <xdr:rowOff>48985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2105,16 +2105,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>283029</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>92527</xdr:rowOff>
+      <xdr:rowOff>48984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>130628</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2441,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8CC19F-C972-4C96-95F2-7FA49702215D}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
